--- a/+aae550/+hw3/+p1/results.xlsx
+++ b/+aae550/+hw3/+p1/results.xlsx
@@ -127,18 +127,118 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -147,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -156,6 +256,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F23"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,151 +566,244 @@
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="14">
         <v>73</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="11">
         <v>4.9002999999999995E-7</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="15">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>4.9002999999999995E-7</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="14">
         <v>73</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="11">
         <v>4.9002999999999995E-7</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="15">
         <v>3</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <v>4.9002999999999995E-7</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="14">
         <v>48</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="11">
         <v>8.9546050000000008</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="15">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <v>8.9546050000000008</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
@@ -608,7 +817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>0</v>
       </c>
@@ -625,7 +834,7 @@
         <v>31.838488000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>1</v>
       </c>
